--- a/unsteady/test_cases/beach_slope/results_beach.xlsx
+++ b/unsteady/test_cases/beach_slope/results_beach.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4117/Documents/adapt_utils/unsteady/test_cases/beach_slope/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A78BA70-D60C-EC48-9998-DE11AE19E12A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1B14D1-2111-A146-A019-D5FBD58C2718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{FFBB2C74-1ADB-6944-87A5-4C4E1AF9A278}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="8" xr2:uid="{FFBB2C74-1ADB-6944-87A5-4C4E1AF9A278}"/>
   </bookViews>
   <sheets>
     <sheet name="fixed" sheetId="1" r:id="rId1"/>
@@ -611,7 +611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890DF67A-C8F2-9E46-A912-68C6944874CC}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -7160,8 +7160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA4DD27-10B0-164D-93A3-F9755170859C}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7351,9 +7351,7 @@
       <c r="K6" s="1">
         <v>0.48583755881306201</v>
       </c>
-      <c r="L6" s="1">
-        <v>0.48583755881306201</v>
-      </c>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
